--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/54_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/54_11R22.xlsx
@@ -19,7 +19,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="64">
+  <si>
+    <t>Signal_Value_81</t>
+  </si>
+  <si>
+    <t>Signal_Value_82</t>
+  </si>
+  <si>
+    <t>Signal_Value_83</t>
+  </si>
+  <si>
+    <t>Signal_Value_84</t>
+  </si>
+  <si>
+    <t>Signal_Value_85</t>
+  </si>
+  <si>
+    <t>Signal_Value_86</t>
+  </si>
+  <si>
+    <t>Signal_Value_87</t>
+  </si>
   <si>
     <t>Signal_Value_88</t>
   </si>
@@ -547,15 +568,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AQ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:43">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -662,10 +683,31 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:36">
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -677,16 +719,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1481908664939793</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.02812090352601898</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.1370082054254122</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.00363777919049452</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -695,87 +737,108 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.036962553270281</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.06744471792616342</v>
+        <v>0.007014360046448008</v>
       </c>
       <c r="M2">
-        <v>0.05786042713115704</v>
+        <v>0.0974426769440703</v>
       </c>
       <c r="N2">
-        <v>0.02896692511654058</v>
+        <v>0.03829181134631242</v>
       </c>
       <c r="O2">
-        <v>0.07752175722254161</v>
+        <v>0.03863168926138203</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.02211291391406406</v>
       </c>
       <c r="Q2">
-        <v>0.09368034632863149</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.005417248504673968</v>
       </c>
       <c r="S2">
-        <v>0.1009934747985656</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.02601995864546872</v>
+        <v>0.0910378924978108</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>4.584052927937962E-06</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.08135910920912008</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.09632267526569795</v>
       </c>
       <c r="X2">
-        <v>0.01610528524338017</v>
+        <v>0.00416101329760439</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.1057198746892379</v>
       </c>
       <c r="Z2">
-        <v>0.1226123683287161</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.01682675008514151</v>
+        <v>0.137997203574993</v>
       </c>
       <c r="AB2">
-        <v>0.007554991916533423</v>
+        <v>0.004578341631926988</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.0237523798562445</v>
       </c>
       <c r="AD2">
-        <v>0.005339824392089847</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.01644133304479217</v>
       </c>
       <c r="AF2">
-        <v>0.02515286495888441</v>
+        <v>0.005095063471377618</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.1083803677348976</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.04553253693453661</v>
       </c>
       <c r="AJ2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:36">
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0.01209943674127287</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0.05860748798060861</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -784,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.002546516987737106</v>
       </c>
       <c r="E3">
-        <v>0.08350278304330025</v>
+        <v>0.07296679655629715</v>
       </c>
       <c r="F3">
-        <v>0.007955913547845212</v>
+        <v>0.01271357143120702</v>
       </c>
       <c r="G3">
-        <v>0.2635404019195997</v>
+        <v>0.0556025148199548</v>
       </c>
       <c r="H3">
-        <v>0.06197322632138894</v>
+        <v>0.02403359294625013</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -808,70 +871,70 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.06011796986710038</v>
       </c>
       <c r="M3">
-        <v>0.09899911576847177</v>
+        <v>0.01309529824417835</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.0455730450949188</v>
       </c>
       <c r="O3">
-        <v>0.128976672291456</v>
+        <v>0.1219095958350772</v>
       </c>
       <c r="P3">
-        <v>0.004143346103083621</v>
+        <v>0.008527515490255964</v>
       </c>
       <c r="Q3">
-        <v>0.01316718335977072</v>
+        <v>0.0674218737243827</v>
       </c>
       <c r="R3">
-        <v>0.03226245357053233</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0001012970341986435</v>
+        <v>0.1171516996519359</v>
       </c>
       <c r="T3">
-        <v>0.1175966397556526</v>
+        <v>0.04083046157893452</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.02477131199872139</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.0382570446346106</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>0.000301688669124426</v>
       </c>
       <c r="Z3">
-        <v>0.05723064911596557</v>
+        <v>0.09536844075210024</v>
       </c>
       <c r="AA3">
-        <v>0.09011694850946524</v>
+        <v>0.1094589227336522</v>
       </c>
       <c r="AB3">
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.01686132764460687</v>
+        <v>0.01305447927945875</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.01525385301629045</v>
       </c>
       <c r="AE3">
-        <v>0.0003082317176486914</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.01986118262959685</v>
+        <v>0.05711154786616662</v>
       </c>
       <c r="AG3">
-        <v>0.003402627667417083</v>
+        <v>0.003932258821645536</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -882,10 +945,31 @@
       <c r="AJ3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:36">
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -897,105 +981,126 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1193709503249718</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.007873279081833573</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.1583867147776357</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0114572865908792</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.124873735701614</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0129899076221484</v>
+        <v>0.06221859972376038</v>
       </c>
       <c r="L4">
-        <v>8.471901944922141E-05</v>
+        <v>0.03946337055520424</v>
       </c>
       <c r="M4">
-        <v>0.09377016016685748</v>
+        <v>0.00214875679533006</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1268171613597717</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.004822195687063038</v>
+        <v>0.02898085476646421</v>
       </c>
       <c r="Q4">
-        <v>0.01091199665862206</v>
+        <v>0.05552245792047096</v>
       </c>
       <c r="R4">
-        <v>0.01702413363118816</v>
+        <v>0.005629272738975367</v>
       </c>
       <c r="S4">
-        <v>0.05295129664226665</v>
+        <v>0.1435492119756958</v>
       </c>
       <c r="T4">
-        <v>0.09318129138640148</v>
+        <v>0.006379810035730245</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.01643488378052745</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.04332923311477397</v>
       </c>
       <c r="W4">
-        <v>0.002686737152736487</v>
+        <v>0.04761321781091776</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.09465510970487002</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.1181530529288579</v>
+        <v>0.006705908669096099</v>
       </c>
       <c r="AA4">
-        <v>0.08316813811298854</v>
+        <v>0.0262564249661575</v>
       </c>
       <c r="AB4">
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.01457188823079066</v>
+        <v>0.03059368166792191</v>
       </c>
       <c r="AD4">
-        <v>0.006980854666725834</v>
+        <v>0.02004221511114424</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.1404900062541964</v>
       </c>
       <c r="AF4">
-        <v>0.05450497251377709</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.002791344607643968</v>
+        <v>0.03444816562877593</v>
       </c>
       <c r="AH4">
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.002949924431145418</v>
       </c>
       <c r="AJ4">
-        <v>0.007501918837390856</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
+        <v>0.02739792314178106</v>
+      </c>
+      <c r="AK4">
+        <v>0.03092267786125832</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0.009394557644188768</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1004,22 +1109,22 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.003338447538727708</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1242065356902016</v>
+        <v>0.02688972903352451</v>
       </c>
       <c r="F5">
-        <v>0.09843427803647074</v>
+        <v>0.02279241037169129</v>
       </c>
       <c r="G5">
-        <v>0.1235887783696749</v>
+        <v>0.03190917630639593</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.06664982504565707</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01391903078250068</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1028,70 +1133,70 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.07205244797635196</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.02300980352226031</v>
+        <v>0.06196336407330023</v>
       </c>
       <c r="N5">
-        <v>0.1101141319947381</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.04735257147700851</v>
+        <v>0.1323287288568335</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.07954892982671335</v>
       </c>
       <c r="Q5">
-        <v>0.04728640144603014</v>
+        <v>0.008050184585627267</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.07359109109884322</v>
       </c>
       <c r="S5">
-        <v>0.1044920589124071</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.139947024986847</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.0379457875089651</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0.01215831102140075</v>
+        <v>0.01363516326381145</v>
       </c>
       <c r="Y5">
-        <v>0.03509214044845884</v>
+        <v>0.01394325107748888</v>
       </c>
       <c r="Z5">
-        <v>0.1177321389810156</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.1443761485193361</v>
       </c>
       <c r="AB5">
-        <v>0.02380479201075162</v>
+        <v>0.01484827942506615</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.02820921123174992</v>
       </c>
       <c r="AD5">
-        <v>0.01448593023776771</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.02872420502858455</v>
+        <v>0.02996922916309271</v>
       </c>
       <c r="AF5">
-        <v>0.0141270273081497</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>0.05900208752630526</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1100,12 +1205,33 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
+        <v>0.0004813473162503946</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1117,13 +1243,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1104359488344994</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02885098847905856</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.1500572926296104</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1135,82 +1261,103 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.005028418070700999</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.124573856764804</v>
       </c>
       <c r="M6">
-        <v>0.07455329601816285</v>
+        <v>0.04131053865396742</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1666015025523139</v>
       </c>
       <c r="O6">
-        <v>0.1494261279096919</v>
+        <v>0.1299743375171703</v>
       </c>
       <c r="P6">
-        <v>0.002689664021367601</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.05344523897956083</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.02204757305960203</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.07005554092745729</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.07292455953029336</v>
+        <v>0.05887461055825308</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.1519772144772338</v>
       </c>
       <c r="W6">
-        <v>0.001901637714809414</v>
+        <v>0.06523798038744739</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.004556689081353451</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.0267410127758096</v>
       </c>
       <c r="Z6">
-        <v>0.1153347624174815</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.07671412165209802</v>
+        <v>0.0943479255713033</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.01107888561808563</v>
+        <v>0.01054337256473807</v>
       </c>
       <c r="AD6">
-        <v>0.004500683829745107</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.04765249957951822</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>0.00284664884276938</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.09214531662614328</v>
       </c>
       <c r="AI6">
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.003302760728256813</v>
+        <v>0.004073005156020851</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0.004495429751709915</v>
+      </c>
+      <c r="AM6">
+        <v>0.0001879631924227047</v>
+      </c>
+      <c r="AN6">
+        <v>0.02151259552653918</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1220,15 +1367,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AQ6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:43">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1335,10 +1482,31 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:36">
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1350,105 +1518,126 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1481908664939793</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.1763117700199982</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3133199754454105</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.316957754635905</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.316957754635905</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.316957754635905</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.353920307906186</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4213650258323494</v>
+        <v>0.007014360046448008</v>
       </c>
       <c r="M2">
-        <v>0.4792254529635064</v>
+        <v>0.1044570369905183</v>
       </c>
       <c r="N2">
-        <v>0.508192378080047</v>
+        <v>0.1427488483368307</v>
       </c>
       <c r="O2">
-        <v>0.5857141353025886</v>
+        <v>0.1813805375982127</v>
       </c>
       <c r="P2">
-        <v>0.5857141353025886</v>
+        <v>0.2034934515122768</v>
       </c>
       <c r="Q2">
-        <v>0.6793944816312202</v>
+        <v>0.2034934515122768</v>
       </c>
       <c r="R2">
-        <v>0.6793944816312202</v>
+        <v>0.2089107000169508</v>
       </c>
       <c r="S2">
-        <v>0.7803879564297858</v>
+        <v>0.2089107000169508</v>
       </c>
       <c r="T2">
-        <v>0.8064079150752544</v>
+        <v>0.2999485925147616</v>
       </c>
       <c r="U2">
-        <v>0.8064079150752544</v>
+        <v>0.2999531765676895</v>
       </c>
       <c r="V2">
-        <v>0.8064079150752544</v>
+        <v>0.3813122857768096</v>
       </c>
       <c r="W2">
-        <v>0.8064079150752544</v>
+        <v>0.4776349610425075</v>
       </c>
       <c r="X2">
-        <v>0.8225132003186346</v>
+        <v>0.4817959743401119</v>
       </c>
       <c r="Y2">
-        <v>0.8225132003186346</v>
+        <v>0.5875158490293497</v>
       </c>
       <c r="Z2">
-        <v>0.9451255686473506</v>
+        <v>0.5875158490293497</v>
       </c>
       <c r="AA2">
-        <v>0.9619523187324921</v>
+        <v>0.7255130526043427</v>
       </c>
       <c r="AB2">
-        <v>0.9695073106490255</v>
+        <v>0.7300913942362697</v>
       </c>
       <c r="AC2">
-        <v>0.9695073106490255</v>
+        <v>0.7538437740925141</v>
       </c>
       <c r="AD2">
-        <v>0.9748471350411153</v>
+        <v>0.7538437740925141</v>
       </c>
       <c r="AE2">
-        <v>0.9748471350411153</v>
+        <v>0.7702851071373062</v>
       </c>
       <c r="AF2">
-        <v>0.9999999999999997</v>
+        <v>0.7753801706086839</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999997</v>
+        <v>0.7753801706086839</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999997</v>
+        <v>0.8837605383435816</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999997</v>
+        <v>0.9292930752781182</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
+        <v>0.9292930752781182</v>
+      </c>
+      <c r="AK2">
+        <v>0.9292930752781182</v>
+      </c>
+      <c r="AL2">
+        <v>0.9413925120193911</v>
+      </c>
+      <c r="AM2">
+        <v>0.9413925120193911</v>
+      </c>
+      <c r="AN2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AO2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AP2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AQ2">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1457,91 +1646,91 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.002546516987737106</v>
       </c>
       <c r="E3">
-        <v>0.08350278304330025</v>
+        <v>0.07551331354403426</v>
       </c>
       <c r="F3">
-        <v>0.09145869659114546</v>
+        <v>0.08822688497524128</v>
       </c>
       <c r="G3">
-        <v>0.3549990985107452</v>
+        <v>0.1438293997951961</v>
       </c>
       <c r="H3">
-        <v>0.4169723248321341</v>
+        <v>0.1678629927414462</v>
       </c>
       <c r="I3">
-        <v>0.4169723248321341</v>
+        <v>0.1678629927414462</v>
       </c>
       <c r="J3">
-        <v>0.4169723248321341</v>
+        <v>0.1678629927414462</v>
       </c>
       <c r="K3">
-        <v>0.4169723248321341</v>
+        <v>0.1678629927414462</v>
       </c>
       <c r="L3">
-        <v>0.4169723248321341</v>
+        <v>0.2279809626085466</v>
       </c>
       <c r="M3">
-        <v>0.5159714406006058</v>
+        <v>0.2410762608527249</v>
       </c>
       <c r="N3">
-        <v>0.5159714406006058</v>
+        <v>0.2866493059476437</v>
       </c>
       <c r="O3">
-        <v>0.6449481128920619</v>
+        <v>0.4085589017827209</v>
       </c>
       <c r="P3">
-        <v>0.6490914589951455</v>
+        <v>0.4170864172729769</v>
       </c>
       <c r="Q3">
-        <v>0.6622586423549163</v>
+        <v>0.4845082909973595</v>
       </c>
       <c r="R3">
-        <v>0.6945210959254486</v>
+        <v>0.4845082909973595</v>
       </c>
       <c r="S3">
-        <v>0.6946223929596472</v>
+        <v>0.6016599906492954</v>
       </c>
       <c r="T3">
-        <v>0.8122190327152998</v>
+        <v>0.64249045222823</v>
       </c>
       <c r="U3">
-        <v>0.8122190327152998</v>
+        <v>0.6672617642269514</v>
       </c>
       <c r="V3">
-        <v>0.8122190327152998</v>
+        <v>0.6672617642269514</v>
       </c>
       <c r="W3">
-        <v>0.8122190327152998</v>
+        <v>0.7055188088615619</v>
       </c>
       <c r="X3">
-        <v>0.8122190327152998</v>
+        <v>0.7055188088615619</v>
       </c>
       <c r="Y3">
-        <v>0.8122190327152998</v>
+        <v>0.7058204975306863</v>
       </c>
       <c r="Z3">
-        <v>0.8694496818312654</v>
+        <v>0.8011889382827866</v>
       </c>
       <c r="AA3">
-        <v>0.9595666303407306</v>
+        <v>0.9106478610164388</v>
       </c>
       <c r="AB3">
-        <v>0.9595666303407306</v>
+        <v>0.9106478610164388</v>
       </c>
       <c r="AC3">
-        <v>0.9764279579853375</v>
+        <v>0.9237023402958976</v>
       </c>
       <c r="AD3">
-        <v>0.9764279579853375</v>
+        <v>0.938956193312188</v>
       </c>
       <c r="AE3">
-        <v>0.9767361897029863</v>
+        <v>0.938956193312188</v>
       </c>
       <c r="AF3">
-        <v>0.9965973723325831</v>
+        <v>0.9960677411783546</v>
       </c>
       <c r="AG3">
         <v>1</v>
@@ -1555,10 +1744,31 @@
       <c r="AJ3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:36">
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1570,105 +1780,126 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1193709503249718</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1272442294068054</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.2856309441844411</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.2970882307753203</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2970882307753203</v>
+        <v>0.124873735701614</v>
       </c>
       <c r="J4">
-        <v>0.2970882307753203</v>
+        <v>0.124873735701614</v>
       </c>
       <c r="K4">
-        <v>0.3100781383974687</v>
+        <v>0.1870923354253743</v>
       </c>
       <c r="L4">
-        <v>0.3101628574169179</v>
+        <v>0.2265557059805786</v>
       </c>
       <c r="M4">
-        <v>0.4039330175837754</v>
+        <v>0.2287044627759086</v>
       </c>
       <c r="N4">
-        <v>0.4039330175837754</v>
+        <v>0.2287044627759086</v>
       </c>
       <c r="O4">
-        <v>0.530750178943547</v>
+        <v>0.2287044627759086</v>
       </c>
       <c r="P4">
-        <v>0.53557237463061</v>
+        <v>0.2576853175423728</v>
       </c>
       <c r="Q4">
-        <v>0.5464843712892321</v>
+        <v>0.3132077754628438</v>
       </c>
       <c r="R4">
-        <v>0.5635085049204203</v>
+        <v>0.3188370482018191</v>
       </c>
       <c r="S4">
-        <v>0.6164598015626869</v>
+        <v>0.4623862601775149</v>
       </c>
       <c r="T4">
-        <v>0.7096410929490884</v>
+        <v>0.4687660702132452</v>
       </c>
       <c r="U4">
-        <v>0.7096410929490884</v>
+        <v>0.4852009539937726</v>
       </c>
       <c r="V4">
-        <v>0.7096410929490884</v>
+        <v>0.5285301871085466</v>
       </c>
       <c r="W4">
-        <v>0.7123278301018249</v>
+        <v>0.5761434049194644</v>
       </c>
       <c r="X4">
-        <v>0.7123278301018249</v>
+        <v>0.6707985146243344</v>
       </c>
       <c r="Y4">
-        <v>0.7123278301018249</v>
+        <v>0.6707985146243344</v>
       </c>
       <c r="Z4">
-        <v>0.8304808830306828</v>
+        <v>0.6775044232934305</v>
       </c>
       <c r="AA4">
-        <v>0.9136490211436713</v>
+        <v>0.7037608482595881</v>
       </c>
       <c r="AB4">
-        <v>0.9136490211436713</v>
+        <v>0.7037608482595881</v>
       </c>
       <c r="AC4">
-        <v>0.928220909374462</v>
+        <v>0.7343545299275099</v>
       </c>
       <c r="AD4">
-        <v>0.9352017640411878</v>
+        <v>0.7543967450386542</v>
       </c>
       <c r="AE4">
-        <v>0.9352017640411878</v>
+        <v>0.8948867512928506</v>
       </c>
       <c r="AF4">
-        <v>0.9897067365549649</v>
+        <v>0.8948867512928506</v>
       </c>
       <c r="AG4">
-        <v>0.9924980811626088</v>
+        <v>0.9293349169216265</v>
       </c>
       <c r="AH4">
-        <v>0.9924980811626088</v>
+        <v>0.9293349169216265</v>
       </c>
       <c r="AI4">
-        <v>0.9924980811626088</v>
+        <v>0.9322848413527719</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
+        <v>0.9596827644945529</v>
+      </c>
+      <c r="AK4">
+        <v>0.9906054423558113</v>
+      </c>
+      <c r="AL4">
+        <v>0.9906054423558113</v>
+      </c>
+      <c r="AM4">
+        <v>0.9906054423558113</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1677,213 +1908,255 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.003338447538727708</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1275449832289293</v>
+        <v>0.02688972903352451</v>
       </c>
       <c r="F5">
-        <v>0.2259792612654001</v>
+        <v>0.04968213940521579</v>
       </c>
       <c r="G5">
-        <v>0.3495680396350749</v>
+        <v>0.08159131571161171</v>
       </c>
       <c r="H5">
-        <v>0.3495680396350749</v>
+        <v>0.1482411407572688</v>
       </c>
       <c r="I5">
-        <v>0.3495680396350749</v>
+        <v>0.1621601715397695</v>
       </c>
       <c r="J5">
-        <v>0.3495680396350749</v>
+        <v>0.1621601715397695</v>
       </c>
       <c r="K5">
-        <v>0.3495680396350749</v>
+        <v>0.1621601715397695</v>
       </c>
       <c r="L5">
-        <v>0.4216204876114269</v>
+        <v>0.1621601715397695</v>
       </c>
       <c r="M5">
-        <v>0.4446302911336872</v>
+        <v>0.2241235356130697</v>
       </c>
       <c r="N5">
-        <v>0.5547444231284253</v>
+        <v>0.2241235356130697</v>
       </c>
       <c r="O5">
-        <v>0.6020969946054339</v>
+        <v>0.3564522644699032</v>
       </c>
       <c r="P5">
-        <v>0.6020969946054339</v>
+        <v>0.4360011942966165</v>
       </c>
       <c r="Q5">
-        <v>0.649383396051464</v>
+        <v>0.4440513788822438</v>
       </c>
       <c r="R5">
-        <v>0.649383396051464</v>
+        <v>0.5176424699810871</v>
       </c>
       <c r="S5">
-        <v>0.7538754549638711</v>
+        <v>0.5176424699810871</v>
       </c>
       <c r="T5">
-        <v>0.7538754549638711</v>
+        <v>0.6575894949679341</v>
       </c>
       <c r="U5">
-        <v>0.7538754549638711</v>
+        <v>0.6575894949679341</v>
       </c>
       <c r="V5">
-        <v>0.7538754549638711</v>
+        <v>0.6955352824768992</v>
       </c>
       <c r="W5">
-        <v>0.7538754549638711</v>
+        <v>0.6955352824768992</v>
       </c>
       <c r="X5">
-        <v>0.7660337659852718</v>
+        <v>0.7091704457407106</v>
       </c>
       <c r="Y5">
-        <v>0.8011259064337307</v>
+        <v>0.7231136968181995</v>
       </c>
       <c r="Z5">
-        <v>0.9188580454147462</v>
+        <v>0.7231136968181995</v>
       </c>
       <c r="AA5">
-        <v>0.9188580454147462</v>
+        <v>0.8674898453375356</v>
       </c>
       <c r="AB5">
-        <v>0.9426628374254978</v>
+        <v>0.8823381247626018</v>
       </c>
       <c r="AC5">
-        <v>0.9426628374254978</v>
+        <v>0.9105473359943517</v>
       </c>
       <c r="AD5">
-        <v>0.9571487676632655</v>
+        <v>0.9105473359943517</v>
       </c>
       <c r="AE5">
-        <v>0.98587297269185</v>
+        <v>0.9405165651574444</v>
       </c>
       <c r="AF5">
+        <v>0.9405165651574444</v>
+      </c>
+      <c r="AG5">
+        <v>0.9995186526837497</v>
+      </c>
+      <c r="AH5">
+        <v>0.9995186526837497</v>
+      </c>
+      <c r="AI5">
+        <v>0.9995186526837497</v>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0.124573856764804</v>
+      </c>
+      <c r="M6">
+        <v>0.1658843954187714</v>
+      </c>
+      <c r="N6">
+        <v>0.3324858979710853</v>
+      </c>
+      <c r="O6">
+        <v>0.4624602354882557</v>
+      </c>
+      <c r="P6">
+        <v>0.4624602354882557</v>
+      </c>
+      <c r="Q6">
+        <v>0.4624602354882557</v>
+      </c>
+      <c r="R6">
+        <v>0.4624602354882557</v>
+      </c>
+      <c r="S6">
+        <v>0.4624602354882557</v>
+      </c>
+      <c r="T6">
+        <v>0.5213348460465087</v>
+      </c>
+      <c r="U6">
+        <v>0.5213348460465087</v>
+      </c>
+      <c r="V6">
+        <v>0.6733120605237425</v>
+      </c>
+      <c r="W6">
+        <v>0.7385500409111899</v>
+      </c>
+      <c r="X6">
+        <v>0.7431067299925433</v>
+      </c>
+      <c r="Y6">
+        <v>0.769847742768353</v>
+      </c>
+      <c r="Z6">
+        <v>0.769847742768353</v>
+      </c>
+      <c r="AA6">
+        <v>0.8641956683396563</v>
+      </c>
+      <c r="AB6">
+        <v>0.8641956683396563</v>
+      </c>
+      <c r="AC6">
+        <v>0.8747390409043944</v>
+      </c>
+      <c r="AD6">
+        <v>0.8747390409043944</v>
+      </c>
+      <c r="AE6">
+        <v>0.8747390409043944</v>
+      </c>
+      <c r="AF6">
+        <v>0.8747390409043944</v>
+      </c>
+      <c r="AG6">
+        <v>0.8775856897471638</v>
+      </c>
+      <c r="AH6">
+        <v>0.9697310063733071</v>
+      </c>
+      <c r="AI6">
+        <v>0.9697310063733071</v>
+      </c>
+      <c r="AJ6">
+        <v>0.9738040115293279</v>
+      </c>
+      <c r="AK6">
+        <v>0.9738040115293279</v>
+      </c>
+      <c r="AL6">
+        <v>0.9782994412810379</v>
+      </c>
+      <c r="AM6">
+        <v>0.9784874044734606</v>
+      </c>
+      <c r="AN6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AG5">
+      <c r="AO6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AH5">
+      <c r="AP6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AI5">
+      <c r="AQ6">
         <v>0.9999999999999998</v>
-      </c>
-      <c r="AJ5">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0.1104359488344994</v>
-      </c>
-      <c r="F6">
-        <v>0.139286937313558</v>
-      </c>
-      <c r="G6">
-        <v>0.2893442299431684</v>
-      </c>
-      <c r="H6">
-        <v>0.2893442299431684</v>
-      </c>
-      <c r="I6">
-        <v>0.2893442299431684</v>
-      </c>
-      <c r="J6">
-        <v>0.2893442299431684</v>
-      </c>
-      <c r="K6">
-        <v>0.2943726480138694</v>
-      </c>
-      <c r="L6">
-        <v>0.2943726480138694</v>
-      </c>
-      <c r="M6">
-        <v>0.3689259440320323</v>
-      </c>
-      <c r="N6">
-        <v>0.3689259440320323</v>
-      </c>
-      <c r="O6">
-        <v>0.5183520719417242</v>
-      </c>
-      <c r="P6">
-        <v>0.5210417359630918</v>
-      </c>
-      <c r="Q6">
-        <v>0.5744869749426527</v>
-      </c>
-      <c r="R6">
-        <v>0.5965345480022547</v>
-      </c>
-      <c r="S6">
-        <v>0.6665900889297119</v>
-      </c>
-      <c r="T6">
-        <v>0.7395146484600053</v>
-      </c>
-      <c r="U6">
-        <v>0.7395146484600053</v>
-      </c>
-      <c r="V6">
-        <v>0.7395146484600053</v>
-      </c>
-      <c r="W6">
-        <v>0.7414162861748147</v>
-      </c>
-      <c r="X6">
-        <v>0.7414162861748147</v>
-      </c>
-      <c r="Y6">
-        <v>0.7414162861748147</v>
-      </c>
-      <c r="Z6">
-        <v>0.8567510485922962</v>
-      </c>
-      <c r="AA6">
-        <v>0.9334651702443942</v>
-      </c>
-      <c r="AB6">
-        <v>0.9334651702443942</v>
-      </c>
-      <c r="AC6">
-        <v>0.9445440558624799</v>
-      </c>
-      <c r="AD6">
-        <v>0.949044739692225</v>
-      </c>
-      <c r="AE6">
-        <v>0.949044739692225</v>
-      </c>
-      <c r="AF6">
-        <v>0.9966972392717433</v>
-      </c>
-      <c r="AG6">
-        <v>0.9966972392717433</v>
-      </c>
-      <c r="AH6">
-        <v>0.9966972392717433</v>
-      </c>
-      <c r="AI6">
-        <v>0.9966972392717433</v>
-      </c>
-      <c r="AJ6">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1901,66 +2174,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.508192378080047</v>
+        <v>0.5875158490293497</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>54</v>
@@ -1969,21 +2242,21 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -1992,16 +2265,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5159714406006058</v>
+        <v>0.6016599906492954</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>54</v>
@@ -2010,39 +2283,39 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.530750178943547</v>
+        <v>0.5285301871085466</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>54</v>
@@ -2051,39 +2324,39 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>0.02688972903352451</v>
+      </c>
+      <c r="F5">
+        <v>0.5176424699810871</v>
+      </c>
+      <c r="G5">
         <v>13</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5547444231284253</v>
-      </c>
-      <c r="G5">
-        <v>11</v>
       </c>
       <c r="H5">
         <v>54</v>
@@ -2092,39 +2365,39 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5183520719417242</v>
+        <v>0.5213348460465087</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>54</v>
@@ -2133,16 +2406,16 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2160,63 +2433,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7803879564297858</v>
+        <v>0.7255130526043427</v>
       </c>
       <c r="G2">
         <v>16</v>
@@ -2228,21 +2501,21 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>0.7</v>
@@ -2251,16 +2524,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8122190327152998</v>
+        <v>0.7055188088615619</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>54</v>
@@ -2269,39 +2542,39 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7096410929490884</v>
+        <v>0.7037608482595881</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>54</v>
@@ -2310,39 +2583,39 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.02688972903352451</v>
       </c>
       <c r="F5">
-        <v>0.7538754549638711</v>
+        <v>0.7091704457407106</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>54</v>
@@ -2351,39 +2624,39 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7395146484600053</v>
+        <v>0.7385500409111899</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>54</v>
@@ -2392,16 +2665,16 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2419,66 +2692,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8064079150752544</v>
+        <v>0.8837605383435816</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H2">
         <v>54</v>
@@ -2487,21 +2760,21 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -2510,16 +2783,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8122190327152998</v>
+        <v>0.8011889382827866</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H3">
         <v>54</v>
@@ -2528,39 +2801,39 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8304808830306828</v>
+        <v>0.8948867512928506</v>
       </c>
       <c r="G4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>54</v>
@@ -2569,36 +2842,36 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.02688972903352451</v>
       </c>
       <c r="F5">
-        <v>0.8011259064337307</v>
+        <v>0.8674898453375356</v>
       </c>
       <c r="G5">
         <v>22</v>
@@ -2610,39 +2883,39 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8567510485922962</v>
+        <v>0.8641956683396563</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>54</v>
@@ -2651,16 +2924,16 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2678,66 +2951,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9451255686473506</v>
+        <v>0.9292930752781182</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>54</v>
@@ -2746,21 +3019,21 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>0.9</v>
@@ -2775,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9595666303407306</v>
+        <v>0.9106478610164388</v>
       </c>
       <c r="G3">
         <v>24</v>
@@ -2787,39 +3060,39 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D4">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.9293349169216265</v>
+      </c>
+      <c r="G4">
         <v>26</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.9136490211436713</v>
-      </c>
-      <c r="G4">
-        <v>24</v>
       </c>
       <c r="H4">
         <v>54</v>
@@ -2828,39 +3101,39 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.02688972903352451</v>
       </c>
       <c r="F5">
-        <v>0.9188580454147462</v>
+        <v>0.9105473359943517</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5">
         <v>54</v>
@@ -2869,36 +3142,36 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9334651702443942</v>
+        <v>0.9697310063733071</v>
       </c>
       <c r="G6">
         <v>24</v>
@@ -2910,16 +3183,16 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
